--- a/HMHOneMDS_0.2/testdata/New folder/Test_Data.xlsx
+++ b/HMHOneMDS_0.2/testdata/New folder/Test_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HMH\HMHOneMDS_0.2\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Denny\HMH\HMHOneMDS_0.2\testdata\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026A7FFE-3E06-4028-8F6C-C4DD33519EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Data" sheetId="2" r:id="rId1"/>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -278,7 +277,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -324,7 +323,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
@@ -597,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -750,13 +749,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2">
       <formula1>"Y, N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"Chrome, Firefox"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
       <formula1>"OneCMS, MDSv3.3"</formula1>
     </dataValidation>
   </dataValidations>
